--- a/Data/Forecasts/IDA1/2023-12-01_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-01_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45261</v>
       </c>
       <c r="B2" t="n">
-        <v>116.8206024169922</v>
+        <v>116.8559799194336</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45261.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>121.5490646362305</v>
+        <v>119.3869857788086</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45261.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>120.8944396972656</v>
+        <v>119.2846755981445</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45261.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>111.5338973999023</v>
+        <v>112.9613952636719</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45261.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>114.051628112793</v>
+        <v>115.5965270996094</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45261.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>106.9005661010742</v>
+        <v>111.9981460571289</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45261.125</v>
       </c>
       <c r="B8" t="n">
-        <v>106.9130020141602</v>
+        <v>113.9242248535156</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45261.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>104.2959136962891</v>
+        <v>110.1974487304688</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45261.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>105.1736373901367</v>
+        <v>113.3455429077148</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45261.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>105.1727676391602</v>
+        <v>114.0765380859375</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45261.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>113.6329193115234</v>
+        <v>115.9169845581055</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45261.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>115.8482971191406</v>
+        <v>123.7375793457031</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45261.25</v>
       </c>
       <c r="B14" t="n">
-        <v>120.7331771850586</v>
+        <v>134.0122222900391</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45261.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>127.5390548706055</v>
+        <v>138.5408325195312</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45261.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>161.9505462646484</v>
+        <v>166.5549163818359</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45261.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>187.6255340576172</v>
+        <v>192.1971435546875</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45261.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>190.0322418212891</v>
+        <v>188.0327911376953</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45261.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>202.1534729003906</v>
+        <v>197.8594055175781</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45261.375</v>
       </c>
       <c r="B20" t="n">
-        <v>207.7580871582031</v>
+        <v>200.4571075439453</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>213.7880706787109</v>
+        <v>203.4959716796875</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45261.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>207.6171722412109</v>
+        <v>202.267822265625</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45261.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>206.6760864257812</v>
+        <v>202.3260803222656</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>195.2128601074219</v>
+        <v>195.8311920166016</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45261.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>193.5918731689453</v>
+        <v>195.4060821533203</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45261.5</v>
       </c>
       <c r="B26" t="n">
-        <v>189.0176086425781</v>
+        <v>188.4323425292969</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>190.1880340576172</v>
+        <v>191.9466705322266</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45261.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>189.1344146728516</v>
+        <v>192.1138305664062</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45261.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>184.4603271484375</v>
+        <v>189.0509796142578</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>179.2112884521484</v>
+        <v>191.6007690429688</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>181.1566009521484</v>
+        <v>191.7070159912109</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45261.625</v>
       </c>
       <c r="B32" t="n">
-        <v>193.3966217041016</v>
+        <v>205.5729522705078</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>205.1067352294922</v>
+        <v>220.3265991210938</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>196.4888000488281</v>
+        <v>218.5550384521484</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45261.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>236.6877746582031</v>
+        <v>258.0477905273438</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>254.2183685302734</v>
+        <v>265.3839111328125</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45261.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>258.35986328125</v>
+        <v>265.9122009277344</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45261.75</v>
       </c>
       <c r="B38" t="n">
-        <v>227.7140045166016</v>
+        <v>232.7091217041016</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45261.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>222.1601104736328</v>
+        <v>222.2828826904297</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45261.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>193.3427581787109</v>
+        <v>201.6439971923828</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45261.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>177.8484344482422</v>
+        <v>190.1631011962891</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45261.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>177.8102264404297</v>
+        <v>175.2713012695312</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45261.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>158.6310119628906</v>
+        <v>160.0762634277344</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45261.875</v>
       </c>
       <c r="B44" t="n">
-        <v>153.3259735107422</v>
+        <v>163.5980072021484</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45261.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>133.7398986816406</v>
+        <v>150.0546875</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45261.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>140.9316101074219</v>
+        <v>149.896484375</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45261.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>131.4046783447266</v>
+        <v>142.3611602783203</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45261.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>133.3771820068359</v>
+        <v>141.5925750732422</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45261.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>131.6622467041016</v>
+        <v>141.4111938476562</v>
       </c>
     </row>
   </sheetData>
